--- a/graphs_market_aware_caseB.xlsx
+++ b/graphs_market_aware_caseB.xlsx
@@ -17,21 +17,132 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="5">
-  <si>
-    <t>[nan-nan]</t>
-  </si>
-  <si>
-    <t>[84.23-84.24]</t>
-  </si>
-  <si>
-    <t>[84.24-84.24]</t>
-  </si>
-  <si>
-    <t>[84.24-84.25]</t>
-  </si>
-  <si>
-    <t>[84.25-84.25]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+  <si>
+    <t>[3.579-3.592]</t>
+  </si>
+  <si>
+    <t>[3.592-3.605]</t>
+  </si>
+  <si>
+    <t>[3.605-3.618]</t>
+  </si>
+  <si>
+    <t>[3.618-3.631]</t>
+  </si>
+  <si>
+    <t>[3.631-3.645]</t>
+  </si>
+  <si>
+    <t>[3.645-3.658]</t>
+  </si>
+  <si>
+    <t>[3.658-3.671]</t>
+  </si>
+  <si>
+    <t>[3.671-3.684]</t>
+  </si>
+  <si>
+    <t>[3.684-3.698]</t>
+  </si>
+  <si>
+    <t>[3.698-3.711]</t>
+  </si>
+  <si>
+    <t>[3.711-3.724]</t>
+  </si>
+  <si>
+    <t>[3.724-3.737]</t>
+  </si>
+  <si>
+    <t>[3.737-3.75]</t>
+  </si>
+  <si>
+    <t>[3.75-3.764]</t>
+  </si>
+  <si>
+    <t>[11.61-11.69]</t>
+  </si>
+  <si>
+    <t>[11.69-11.77]</t>
+  </si>
+  <si>
+    <t>[11.77-11.85]</t>
+  </si>
+  <si>
+    <t>[11.85-11.93]</t>
+  </si>
+  <si>
+    <t>[11.93-12.01]</t>
+  </si>
+  <si>
+    <t>[12.01-12.09]</t>
+  </si>
+  <si>
+    <t>[12.09-12.17]</t>
+  </si>
+  <si>
+    <t>[12.17-12.25]</t>
+  </si>
+  <si>
+    <t>[12.25-12.33]</t>
+  </si>
+  <si>
+    <t>[12.33-12.41]</t>
+  </si>
+  <si>
+    <t>[12.41-12.49]</t>
+  </si>
+  <si>
+    <t>[12.49-12.57]</t>
+  </si>
+  <si>
+    <t>[12.57-12.64]</t>
+  </si>
+  <si>
+    <t>[12.64-12.72]</t>
+  </si>
+  <si>
+    <t>[83.72-83.82]</t>
+  </si>
+  <si>
+    <t>[83.82-83.92]</t>
+  </si>
+  <si>
+    <t>[83.92-84.02]</t>
+  </si>
+  <si>
+    <t>[84.02-84.12]</t>
+  </si>
+  <si>
+    <t>[84.12-84.23]</t>
+  </si>
+  <si>
+    <t>[84.23-84.33]</t>
+  </si>
+  <si>
+    <t>[84.33-84.43]</t>
+  </si>
+  <si>
+    <t>[84.43-84.53]</t>
+  </si>
+  <si>
+    <t>[84.53-84.63]</t>
+  </si>
+  <si>
+    <t>[84.63-84.73]</t>
+  </si>
+  <si>
+    <t>[84.73-84.83]</t>
+  </si>
+  <si>
+    <t>[84.83-84.94]</t>
+  </si>
+  <si>
+    <t>[84.94-85.04]</t>
+  </si>
+  <si>
+    <t>[85.04-85.14]</t>
   </si>
 </sst>
 </file>
@@ -137,31 +248,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -176,28 +287,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -324,46 +435,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.579-3.592]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.592-3.605]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.605-3.618]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.618-3.631]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.631-3.645]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.645-3.658]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.658-3.671]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.671-3.684]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.684-3.698]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.698-3.711]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.711-3.724]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.724-3.737]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.737-3.75]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.75-3.764]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -375,46 +486,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -551,46 +662,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[11.61-11.69]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[11.69-11.77]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[11.77-11.85]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[11.85-11.93]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[11.93-12.01]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[12.01-12.09]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[12.09-12.17]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[12.17-12.25]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[12.25-12.33]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[12.33-12.41]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[12.41-12.49]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[12.49-12.57]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[12.57-12.64]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[12.64-12.72]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -602,43 +713,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1</c:v>
@@ -778,46 +889,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[84.23-84.24]</c:v>
+                  <c:v>[83.72-83.82]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[84.24-84.24]</c:v>
+                  <c:v>[83.82-83.92]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[84.24-84.24]</c:v>
+                  <c:v>[83.92-84.02]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[84.24-84.24]</c:v>
+                  <c:v>[84.02-84.12]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[84.24-84.24]</c:v>
+                  <c:v>[84.12-84.23]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[84.24-84.24]</c:v>
+                  <c:v>[84.23-84.33]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[84.24-84.24]</c:v>
+                  <c:v>[84.33-84.43]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[84.24-84.25]</c:v>
+                  <c:v>[84.43-84.53]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[84.25-84.25]</c:v>
+                  <c:v>[84.53-84.63]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[84.25-84.25]</c:v>
+                  <c:v>[84.63-84.73]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[84.25-84.25]</c:v>
+                  <c:v>[84.73-84.83]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[84.25-84.25]</c:v>
+                  <c:v>[84.83-84.94]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[84.25-84.25]</c:v>
+                  <c:v>[84.94-85.04]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[84.25-84.25]</c:v>
+                  <c:v>[85.04-85.14]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -829,46 +940,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1398,7 +1509,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1406,26 +1517,26 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1433,44 +1544,44 @@
         <v>31</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1492,111 +1603,111 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1615,111 +1726,111 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1741,114 +1852,114 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10">
         <v>4</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13">
         <v>4</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
